--- a/Financials/Yearly/FMX_YR_FIN.xlsx
+++ b/Financials/Yearly/FMX_YR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24686EF2-7395-4872-8D25-CDBB88270854}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FMX" sheetId="6" r:id="rId1"/>
@@ -17,12 +18,12 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
   <si>
     <t>FMX</t>
   </si>
@@ -303,9 +304,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +348,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -444,6 +445,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -479,6 +497,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -654,32 +689,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A5:K102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="10" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
@@ -706,88 +741,88 @@
       </c>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>24450200</v>
+        <v>22753300</v>
       </c>
       <c r="E8" s="3">
-        <v>21213800</v>
+        <v>20662500</v>
       </c>
       <c r="F8" s="3">
-        <v>16545400</v>
+        <v>16115400</v>
       </c>
       <c r="G8" s="3">
-        <v>13989100</v>
+        <v>13625600</v>
       </c>
       <c r="H8" s="3">
-        <v>13705000</v>
+        <v>13348800</v>
       </c>
       <c r="I8" s="3">
-        <v>12654200</v>
+        <v>12325300</v>
       </c>
       <c r="J8" s="3">
-        <v>10701800</v>
+        <v>10423600</v>
       </c>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>15409000</v>
+        <v>29378500</v>
       </c>
       <c r="E9" s="3">
-        <v>13344200</v>
+        <v>12997400</v>
       </c>
       <c r="F9" s="3">
-        <v>10004600</v>
+        <v>9744600</v>
       </c>
       <c r="G9" s="3">
-        <v>8139100</v>
+        <v>7927500</v>
       </c>
       <c r="H9" s="3">
-        <v>7882300</v>
+        <v>7677500</v>
       </c>
       <c r="I9" s="3">
-        <v>7275200</v>
+        <v>7086100</v>
       </c>
       <c r="J9" s="3">
-        <v>6225700</v>
+        <v>6063900</v>
       </c>
       <c r="K9" s="3"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>9041200</v>
+        <v>-6625200</v>
       </c>
       <c r="E10" s="3">
-        <v>7869600</v>
+        <v>7665100</v>
       </c>
       <c r="F10" s="3">
-        <v>6540800</v>
+        <v>6370800</v>
       </c>
       <c r="G10" s="3">
-        <v>5850100</v>
+        <v>5698000</v>
       </c>
       <c r="H10" s="3">
-        <v>5822600</v>
+        <v>5671300</v>
       </c>
       <c r="I10" s="3">
-        <v>5379000</v>
+        <v>5239200</v>
       </c>
       <c r="J10" s="3">
-        <v>4476100</v>
+        <v>4359800</v>
       </c>
       <c r="K10" s="3"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -800,7 +835,7 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -827,7 +862,7 @@
       </c>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -854,21 +889,21 @@
       </c>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>109400</v>
+        <v>106500</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>7100</v>
+        <v>6900</v>
       </c>
       <c r="G14" s="3">
-        <v>5400</v>
+        <v>5200</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -881,24 +916,24 @@
       </c>
       <c r="K14" s="3"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>59800</v>
+        <v>58300</v>
       </c>
       <c r="E15" s="3">
-        <v>44400</v>
+        <v>43300</v>
       </c>
       <c r="F15" s="3">
-        <v>28800</v>
+        <v>28100</v>
       </c>
       <c r="G15" s="3">
-        <v>21800</v>
+        <v>21300</v>
       </c>
       <c r="H15" s="3">
-        <v>21600</v>
+        <v>21000</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>8</v>
@@ -908,7 +943,7 @@
       </c>
       <c r="K15" s="3"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -918,61 +953,61 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
     </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>22162600</v>
+        <v>20732400</v>
       </c>
       <c r="E17" s="3">
-        <v>19452200</v>
+        <v>18946700</v>
       </c>
       <c r="F17" s="3">
-        <v>14804700</v>
+        <v>14419900</v>
       </c>
       <c r="G17" s="3">
-        <v>12357300</v>
+        <v>12036100</v>
       </c>
       <c r="H17" s="3">
-        <v>12147600</v>
+        <v>11831900</v>
       </c>
       <c r="I17" s="3">
-        <v>11091300</v>
+        <v>10803000</v>
       </c>
       <c r="J17" s="3">
-        <v>9440800</v>
+        <v>9195400</v>
       </c>
       <c r="K17" s="3"/>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2287700</v>
+        <v>2020900</v>
       </c>
       <c r="E18" s="3">
-        <v>1761600</v>
+        <v>1715800</v>
       </c>
       <c r="F18" s="3">
-        <v>1740700</v>
+        <v>1695400</v>
       </c>
       <c r="G18" s="3">
-        <v>1631900</v>
+        <v>1589500</v>
       </c>
       <c r="H18" s="3">
-        <v>1557400</v>
+        <v>1516900</v>
       </c>
       <c r="I18" s="3">
-        <v>1562900</v>
+        <v>1522300</v>
       </c>
       <c r="J18" s="3">
-        <v>1261000</v>
+        <v>1228200</v>
       </c>
       <c r="K18" s="3"/>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -985,142 +1020,142 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
     </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>169000</v>
+        <v>1143600</v>
       </c>
       <c r="E20" s="3">
-        <v>55400</v>
+        <v>53900</v>
       </c>
       <c r="F20" s="3">
-        <v>-164200</v>
+        <v>-159900</v>
       </c>
       <c r="G20" s="3">
-        <v>-165000</v>
+        <v>-160700</v>
       </c>
       <c r="H20" s="3">
-        <v>-65600</v>
+        <v>-63900</v>
       </c>
       <c r="I20" s="3">
-        <v>32000</v>
+        <v>31100</v>
       </c>
       <c r="J20" s="3">
-        <v>111800</v>
+        <v>108900</v>
       </c>
       <c r="K20" s="3"/>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3388000</v>
+        <v>4077200</v>
       </c>
       <c r="E21" s="3">
-        <v>2539700</v>
+        <v>2478100</v>
       </c>
       <c r="F21" s="3">
-        <v>2147200</v>
+        <v>2094900</v>
       </c>
       <c r="G21" s="3">
-        <v>1994800</v>
+        <v>1946200</v>
       </c>
       <c r="H21" s="3">
-        <v>2002900</v>
+        <v>1954000</v>
       </c>
       <c r="I21" s="3">
-        <v>2010900</v>
-      </c>
-      <c r="J21" s="3">
-        <v>1697800</v>
+        <v>1961100</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K21" s="3"/>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>339800</v>
+        <v>904600</v>
       </c>
       <c r="E22" s="3">
-        <v>300700</v>
+        <v>292800</v>
       </c>
       <c r="F22" s="3">
-        <v>240300</v>
+        <v>234100</v>
       </c>
       <c r="G22" s="3">
-        <v>206100</v>
+        <v>200700</v>
       </c>
       <c r="H22" s="3">
-        <v>160000</v>
+        <v>155800</v>
       </c>
       <c r="I22" s="3">
-        <v>133100</v>
+        <v>129600</v>
       </c>
       <c r="J22" s="3">
-        <v>122200</v>
+        <v>119100</v>
       </c>
       <c r="K22" s="3"/>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2116900</v>
+        <v>2259900</v>
       </c>
       <c r="E23" s="3">
-        <v>1516300</v>
+        <v>1476900</v>
       </c>
       <c r="F23" s="3">
-        <v>1336200</v>
+        <v>1301400</v>
       </c>
       <c r="G23" s="3">
-        <v>1260800</v>
+        <v>1228000</v>
       </c>
       <c r="H23" s="3">
-        <v>1331700</v>
+        <v>1297100</v>
       </c>
       <c r="I23" s="3">
-        <v>1461800</v>
+        <v>1423900</v>
       </c>
       <c r="J23" s="3">
-        <v>1250600</v>
+        <v>1218100</v>
       </c>
       <c r="K23" s="3"/>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>562000</v>
+        <v>528200</v>
       </c>
       <c r="E24" s="3">
-        <v>418900</v>
+        <v>408000</v>
       </c>
       <c r="F24" s="3">
-        <v>421200</v>
+        <v>410200</v>
       </c>
       <c r="G24" s="3">
-        <v>332000</v>
+        <v>323400</v>
       </c>
       <c r="H24" s="3">
-        <v>411800</v>
+        <v>401100</v>
       </c>
       <c r="I24" s="3">
-        <v>422100</v>
+        <v>411100</v>
       </c>
       <c r="J24" s="3">
-        <v>404500</v>
+        <v>394000</v>
       </c>
       <c r="K24" s="3"/>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1147,61 +1182,61 @@
       </c>
       <c r="K25" s="3"/>
     </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1554900</v>
+        <v>1731600</v>
       </c>
       <c r="E26" s="3">
-        <v>1097500</v>
+        <v>1068900</v>
       </c>
       <c r="F26" s="3">
-        <v>915000</v>
+        <v>891200</v>
       </c>
       <c r="G26" s="3">
-        <v>928800</v>
+        <v>904600</v>
       </c>
       <c r="H26" s="3">
-        <v>919900</v>
+        <v>896000</v>
       </c>
       <c r="I26" s="3">
-        <v>1039800</v>
+        <v>1012700</v>
       </c>
       <c r="J26" s="3">
-        <v>846100</v>
+        <v>824100</v>
       </c>
       <c r="K26" s="3"/>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2251900</v>
+        <v>2410400</v>
       </c>
       <c r="E27" s="3">
-        <v>1122500</v>
+        <v>1093400</v>
       </c>
       <c r="F27" s="3">
-        <v>939000</v>
+        <v>914600</v>
       </c>
       <c r="G27" s="3">
-        <v>886800</v>
+        <v>863800</v>
       </c>
       <c r="H27" s="3">
-        <v>845500</v>
+        <v>823500</v>
       </c>
       <c r="I27" s="3">
-        <v>1099500</v>
+        <v>1071000</v>
       </c>
       <c r="J27" s="3">
-        <v>818700</v>
+        <v>797500</v>
       </c>
       <c r="K27" s="3"/>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1228,34 +1263,34 @@
       </c>
       <c r="K28" s="3"/>
     </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
-      </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
+        <v>192700</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K29" s="3"/>
     </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1282,7 +1317,7 @@
       </c>
       <c r="K30" s="3"/>
     </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1309,61 +1344,61 @@
       </c>
       <c r="K31" s="3"/>
     </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-169000</v>
+        <v>-1143600</v>
       </c>
       <c r="E32" s="3">
-        <v>-55400</v>
+        <v>-53900</v>
       </c>
       <c r="F32" s="3">
-        <v>164200</v>
+        <v>159900</v>
       </c>
       <c r="G32" s="3">
-        <v>165000</v>
+        <v>160700</v>
       </c>
       <c r="H32" s="3">
-        <v>65600</v>
+        <v>63900</v>
       </c>
       <c r="I32" s="3">
-        <v>-32000</v>
+        <v>-31100</v>
       </c>
       <c r="J32" s="3">
-        <v>-111800</v>
+        <v>-108900</v>
       </c>
       <c r="K32" s="3"/>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2251900</v>
+        <v>2603100</v>
       </c>
       <c r="E33" s="3">
-        <v>1122500</v>
+        <v>1093400</v>
       </c>
       <c r="F33" s="3">
-        <v>939000</v>
+        <v>914600</v>
       </c>
       <c r="G33" s="3">
-        <v>886800</v>
+        <v>863800</v>
       </c>
       <c r="H33" s="3">
-        <v>845500</v>
+        <v>823500</v>
       </c>
       <c r="I33" s="3">
-        <v>1099500</v>
+        <v>1071000</v>
       </c>
       <c r="J33" s="3">
-        <v>818700</v>
+        <v>797500</v>
       </c>
       <c r="K33" s="3"/>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1390,39 +1425,39 @@
       </c>
       <c r="K34" s="3"/>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2251900</v>
+        <v>2603100</v>
       </c>
       <c r="E35" s="3">
-        <v>1122500</v>
+        <v>1093400</v>
       </c>
       <c r="F35" s="3">
-        <v>939000</v>
+        <v>914600</v>
       </c>
       <c r="G35" s="3">
-        <v>886800</v>
+        <v>863800</v>
       </c>
       <c r="H35" s="3">
-        <v>845500</v>
+        <v>823500</v>
       </c>
       <c r="I35" s="3">
-        <v>1099500</v>
+        <v>1071000</v>
       </c>
       <c r="J35" s="3">
-        <v>818700</v>
+        <v>797500</v>
       </c>
       <c r="K35" s="3"/>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
@@ -1449,7 +1484,7 @@
       </c>
       <c r="K38" s="2"/>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1462,7 +1497,7 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1475,250 +1510,250 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>5147700</v>
+        <v>5013900</v>
       </c>
       <c r="E41" s="3">
-        <v>2317100</v>
+        <v>2256900</v>
       </c>
       <c r="F41" s="3">
-        <v>1560900</v>
+        <v>1520400</v>
       </c>
       <c r="G41" s="3">
-        <v>1884900</v>
+        <v>1835900</v>
       </c>
       <c r="H41" s="3">
-        <v>2901600</v>
+        <v>2826200</v>
       </c>
       <c r="I41" s="3">
-        <v>1939300</v>
+        <v>1888900</v>
       </c>
       <c r="J41" s="3">
-        <v>1372200</v>
+        <v>1336500</v>
       </c>
       <c r="K41" s="3"/>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>114700</v>
+        <v>111700</v>
       </c>
       <c r="E42" s="3">
-        <v>6400</v>
+        <v>6200</v>
       </c>
       <c r="F42" s="3">
-        <v>130400</v>
+        <v>127000</v>
       </c>
       <c r="G42" s="3">
-        <v>7600</v>
+        <v>7400</v>
       </c>
       <c r="H42" s="3">
-        <v>6700</v>
+        <v>6500</v>
       </c>
       <c r="I42" s="3">
-        <v>90300</v>
+        <v>88000</v>
       </c>
       <c r="J42" s="3">
-        <v>98700</v>
+        <v>96100</v>
       </c>
       <c r="K42" s="3"/>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2316200</v>
+        <v>2256000</v>
       </c>
       <c r="E43" s="3">
-        <v>1883000</v>
+        <v>1834100</v>
       </c>
       <c r="F43" s="3">
-        <v>2208600</v>
+        <v>2151200</v>
       </c>
       <c r="G43" s="3">
-        <v>1214500</v>
+        <v>1182900</v>
       </c>
       <c r="H43" s="3">
-        <v>1934100</v>
+        <v>1883800</v>
       </c>
       <c r="I43" s="3">
-        <v>960500</v>
+        <v>935600</v>
       </c>
       <c r="J43" s="3">
-        <v>841200</v>
+        <v>819300</v>
       </c>
       <c r="K43" s="3"/>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1850000</v>
+        <v>1801900</v>
       </c>
       <c r="E44" s="3">
-        <v>1695600</v>
+        <v>1651500</v>
       </c>
       <c r="F44" s="3">
-        <v>1310500</v>
+        <v>1276500</v>
       </c>
       <c r="G44" s="3">
-        <v>914100</v>
+        <v>890300</v>
       </c>
       <c r="H44" s="3">
-        <v>1942300</v>
+        <v>1891800</v>
       </c>
       <c r="I44" s="3">
-        <v>867900</v>
+        <v>845400</v>
       </c>
       <c r="J44" s="3">
-        <v>1526300</v>
+        <v>1486600</v>
       </c>
       <c r="K44" s="3"/>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>192500</v>
+        <v>187500</v>
       </c>
       <c r="E45" s="3">
-        <v>361100</v>
+        <v>351700</v>
       </c>
       <c r="F45" s="3">
-        <v>453200</v>
+        <v>441400</v>
       </c>
       <c r="G45" s="3">
-        <v>179700</v>
+        <v>175100</v>
       </c>
       <c r="H45" s="3">
-        <v>1011800</v>
+        <v>985500</v>
       </c>
       <c r="I45" s="3">
-        <v>148600</v>
+        <v>144800</v>
       </c>
       <c r="J45" s="3">
-        <v>110600</v>
+        <v>107700</v>
       </c>
       <c r="K45" s="3"/>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>9621100</v>
+        <v>9371000</v>
       </c>
       <c r="E46" s="3">
-        <v>6263200</v>
+        <v>6100400</v>
       </c>
       <c r="F46" s="3">
-        <v>4605000</v>
+        <v>4485300</v>
       </c>
       <c r="G46" s="3">
-        <v>4200800</v>
+        <v>4091700</v>
       </c>
       <c r="H46" s="3">
-        <v>3906500</v>
+        <v>3805000</v>
       </c>
       <c r="I46" s="3">
-        <v>4006700</v>
+        <v>3902500</v>
       </c>
       <c r="J46" s="3">
-        <v>3185100</v>
+        <v>3102300</v>
       </c>
       <c r="K46" s="3"/>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>5768800</v>
+        <v>5618900</v>
       </c>
       <c r="E47" s="3">
-        <v>7725700</v>
+        <v>7524900</v>
       </c>
       <c r="F47" s="3">
-        <v>6496600</v>
+        <v>6327700</v>
       </c>
       <c r="G47" s="3">
-        <v>5837900</v>
+        <v>5686200</v>
       </c>
       <c r="H47" s="3">
-        <v>5368800</v>
+        <v>5229300</v>
       </c>
       <c r="I47" s="3">
-        <v>4660700</v>
+        <v>4539600</v>
       </c>
       <c r="J47" s="3">
-        <v>8259000</v>
+        <v>8044400</v>
       </c>
       <c r="K47" s="3"/>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6197400</v>
+        <v>6036300</v>
       </c>
       <c r="E48" s="3">
-        <v>5428000</v>
+        <v>5287000</v>
       </c>
       <c r="F48" s="3">
-        <v>8527400</v>
+        <v>8305800</v>
       </c>
       <c r="G48" s="3">
-        <v>4015900</v>
+        <v>3911500</v>
       </c>
       <c r="H48" s="3">
-        <v>7854000</v>
+        <v>7649900</v>
       </c>
       <c r="I48" s="3">
-        <v>3273600</v>
+        <v>3188500</v>
       </c>
       <c r="J48" s="3">
-        <v>6177100</v>
+        <v>6016600</v>
       </c>
       <c r="K48" s="3"/>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>8182300</v>
+        <v>7969700</v>
       </c>
       <c r="E49" s="3">
-        <v>8138500</v>
+        <v>7927000</v>
       </c>
       <c r="F49" s="3">
-        <v>11505800</v>
+        <v>11206800</v>
       </c>
       <c r="G49" s="3">
-        <v>5391100</v>
+        <v>5251000</v>
       </c>
       <c r="H49" s="3">
-        <v>10969700</v>
+        <v>10684600</v>
       </c>
       <c r="I49" s="3">
-        <v>3605100</v>
+        <v>3511400</v>
       </c>
       <c r="J49" s="3">
-        <v>13409900</v>
+        <v>13061400</v>
       </c>
       <c r="K49" s="3"/>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1745,7 +1780,7 @@
       </c>
       <c r="K50" s="3"/>
     </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1772,34 +1807,34 @@
       </c>
       <c r="K51" s="3"/>
     </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1481900</v>
+        <v>1443400</v>
       </c>
       <c r="E52" s="3">
-        <v>1417100</v>
+        <v>1380300</v>
       </c>
       <c r="F52" s="3">
-        <v>845200</v>
+        <v>823200</v>
       </c>
       <c r="G52" s="3">
-        <v>529000</v>
+        <v>515300</v>
       </c>
       <c r="H52" s="3">
-        <v>910800</v>
+        <v>887100</v>
       </c>
       <c r="I52" s="3">
-        <v>168400</v>
+        <v>164100</v>
       </c>
       <c r="J52" s="3">
-        <v>337100</v>
+        <v>328300</v>
       </c>
       <c r="K52" s="3"/>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1826,34 +1861,34 @@
       </c>
       <c r="K53" s="3"/>
     </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>31251500</v>
+        <v>30439300</v>
       </c>
       <c r="E54" s="3">
-        <v>28972600</v>
+        <v>28219600</v>
       </c>
       <c r="F54" s="3">
-        <v>21735600</v>
+        <v>21170700</v>
       </c>
       <c r="G54" s="3">
-        <v>19974800</v>
+        <v>19455700</v>
       </c>
       <c r="H54" s="3">
-        <v>19073100</v>
+        <v>18577400</v>
       </c>
       <c r="I54" s="3">
-        <v>15714500</v>
+        <v>15306100</v>
       </c>
       <c r="J54" s="3">
-        <v>13984500</v>
+        <v>13621100</v>
       </c>
       <c r="K54" s="3"/>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1866,7 +1901,7 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
     </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1879,169 +1914,169 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
     </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3513300</v>
+        <v>3422000</v>
       </c>
       <c r="E57" s="3">
-        <v>3137600</v>
+        <v>3056100</v>
       </c>
       <c r="F57" s="3">
-        <v>2390000</v>
+        <v>2327900</v>
       </c>
       <c r="G57" s="3">
-        <v>1818400</v>
+        <v>1771200</v>
       </c>
       <c r="H57" s="3">
-        <v>1781100</v>
+        <v>1734800</v>
       </c>
       <c r="I57" s="3">
-        <v>1816300</v>
+        <v>1769100</v>
       </c>
       <c r="J57" s="3">
-        <v>1977300</v>
+        <v>1925900</v>
       </c>
       <c r="K57" s="3"/>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>721600</v>
+        <v>702900</v>
       </c>
       <c r="E58" s="3">
-        <v>386600</v>
+        <v>376600</v>
       </c>
       <c r="F58" s="3">
-        <v>626800</v>
+        <v>610500</v>
       </c>
       <c r="G58" s="3">
-        <v>82500</v>
+        <v>80300</v>
       </c>
       <c r="H58" s="3">
-        <v>203200</v>
+        <v>197900</v>
       </c>
       <c r="I58" s="3">
-        <v>462100</v>
+        <v>450100</v>
       </c>
       <c r="J58" s="3">
-        <v>295900</v>
+        <v>288200</v>
       </c>
       <c r="K58" s="3"/>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1341800</v>
+        <v>1306900</v>
       </c>
       <c r="E59" s="3">
-        <v>1057700</v>
+        <v>1030200</v>
       </c>
       <c r="F59" s="3">
-        <v>1538300</v>
+        <v>1498300</v>
       </c>
       <c r="G59" s="3">
-        <v>718000</v>
+        <v>699300</v>
       </c>
       <c r="H59" s="3">
-        <v>2644200</v>
+        <v>2575400</v>
       </c>
       <c r="I59" s="3">
-        <v>297800</v>
+        <v>290100</v>
       </c>
       <c r="J59" s="3">
-        <v>250600</v>
+        <v>244100</v>
       </c>
       <c r="K59" s="3"/>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>5576700</v>
+        <v>5431700</v>
       </c>
       <c r="E60" s="3">
-        <v>4581900</v>
+        <v>4462900</v>
       </c>
       <c r="F60" s="3">
-        <v>3469900</v>
+        <v>3379700</v>
       </c>
       <c r="G60" s="3">
-        <v>2618800</v>
+        <v>2550800</v>
       </c>
       <c r="H60" s="3">
-        <v>2594900</v>
+        <v>2527500</v>
       </c>
       <c r="I60" s="3">
-        <v>2576200</v>
+        <v>2509200</v>
       </c>
       <c r="J60" s="3">
-        <v>2088200</v>
+        <v>2033900</v>
       </c>
       <c r="K60" s="3"/>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>6252900</v>
+        <v>6090400</v>
       </c>
       <c r="E61" s="3">
-        <v>7007400</v>
+        <v>6825300</v>
       </c>
       <c r="F61" s="3">
-        <v>4565000</v>
+        <v>4446300</v>
       </c>
       <c r="G61" s="3">
-        <v>4403800</v>
+        <v>4289400</v>
       </c>
       <c r="H61" s="3">
-        <v>3833000</v>
+        <v>3733400</v>
       </c>
       <c r="I61" s="3">
-        <v>1520800</v>
+        <v>1481300</v>
       </c>
       <c r="J61" s="3">
-        <v>1264800</v>
+        <v>1231900</v>
       </c>
       <c r="K61" s="3"/>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1531900</v>
+        <v>1492100</v>
       </c>
       <c r="E62" s="3">
-        <v>2187600</v>
+        <v>2130700</v>
       </c>
       <c r="F62" s="3">
-        <v>1109000</v>
+        <v>1080200</v>
       </c>
       <c r="G62" s="3">
-        <v>732600</v>
+        <v>713600</v>
       </c>
       <c r="H62" s="3">
-        <v>1616400</v>
+        <v>1574400</v>
       </c>
       <c r="I62" s="3">
-        <v>458000</v>
+        <v>446100</v>
       </c>
       <c r="J62" s="3">
-        <v>427300</v>
+        <v>416200</v>
       </c>
       <c r="K62" s="3"/>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2068,7 +2103,7 @@
       </c>
       <c r="K63" s="3"/>
     </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2095,7 +2130,7 @@
       </c>
       <c r="K64" s="3"/>
     </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2122,34 +2157,34 @@
       </c>
       <c r="K65" s="3"/>
     </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>17961100</v>
+        <v>17494300</v>
       </c>
       <c r="E66" s="3">
-        <v>17720500</v>
+        <v>17259900</v>
       </c>
       <c r="F66" s="3">
-        <v>12096600</v>
+        <v>11782200</v>
       </c>
       <c r="G66" s="3">
-        <v>10922700</v>
+        <v>10638800</v>
       </c>
       <c r="H66" s="3">
-        <v>7255700</v>
+        <v>7067100</v>
       </c>
       <c r="I66" s="3">
-        <v>7470300</v>
+        <v>7276100</v>
       </c>
       <c r="J66" s="3">
-        <v>6326300</v>
+        <v>6161900</v>
       </c>
       <c r="K66" s="3"/>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2162,7 +2197,7 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
     </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2189,7 +2224,7 @@
       </c>
       <c r="K68" s="3"/>
     </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2216,7 +2251,7 @@
       </c>
       <c r="K69" s="3"/>
     </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2243,7 +2278,7 @@
       </c>
       <c r="K70" s="3"/>
     </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2270,34 +2305,34 @@
       </c>
       <c r="K71" s="3"/>
     </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>10719200</v>
+        <v>10440600</v>
       </c>
       <c r="E72" s="3">
-        <v>8963100</v>
+        <v>8730100</v>
       </c>
       <c r="F72" s="3">
-        <v>8344000</v>
+        <v>8127200</v>
       </c>
       <c r="G72" s="3">
-        <v>7812200</v>
+        <v>7609100</v>
       </c>
       <c r="H72" s="3">
-        <v>6947600</v>
+        <v>6767000</v>
       </c>
       <c r="I72" s="3">
-        <v>6823800</v>
+        <v>6646400</v>
       </c>
       <c r="J72" s="3">
-        <v>6079300</v>
+        <v>5921300</v>
       </c>
       <c r="K72" s="3"/>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2324,7 +2359,7 @@
       </c>
       <c r="K73" s="3"/>
     </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2351,7 +2386,7 @@
       </c>
       <c r="K74" s="3"/>
     </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2378,34 +2413,34 @@
       </c>
       <c r="K75" s="3"/>
     </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>13290500</v>
+        <v>12945100</v>
       </c>
       <c r="E76" s="3">
-        <v>11252100</v>
+        <v>10959700</v>
       </c>
       <c r="F76" s="3">
-        <v>9638900</v>
+        <v>9388400</v>
       </c>
       <c r="G76" s="3">
-        <v>9052100</v>
+        <v>8816900</v>
       </c>
       <c r="H76" s="3">
-        <v>11817400</v>
+        <v>11510300</v>
       </c>
       <c r="I76" s="3">
-        <v>8244300</v>
+        <v>8030000</v>
       </c>
       <c r="J76" s="3">
-        <v>7658200</v>
+        <v>7459200</v>
       </c>
       <c r="K76" s="3"/>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2432,12 +2467,12 @@
       </c>
       <c r="K77" s="3"/>
     </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
@@ -2464,34 +2499,34 @@
       </c>
       <c r="K80" s="2"/>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2251900</v>
+        <v>2603100</v>
       </c>
       <c r="E81" s="3">
-        <v>1122500</v>
+        <v>1093400</v>
       </c>
       <c r="F81" s="3">
-        <v>939000</v>
+        <v>914600</v>
       </c>
       <c r="G81" s="3">
-        <v>886800</v>
+        <v>863800</v>
       </c>
       <c r="H81" s="3">
-        <v>845500</v>
+        <v>823500</v>
       </c>
       <c r="I81" s="3">
-        <v>1099500</v>
+        <v>1071000</v>
       </c>
       <c r="J81" s="3">
-        <v>818700</v>
+        <v>797500</v>
       </c>
       <c r="K81" s="3"/>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2504,34 +2539,34 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
     </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>938000</v>
+        <v>913600</v>
       </c>
       <c r="E83" s="3">
-        <v>727900</v>
+        <v>709000</v>
       </c>
       <c r="F83" s="3">
-        <v>574800</v>
+        <v>559900</v>
       </c>
       <c r="G83" s="3">
-        <v>531700</v>
+        <v>517900</v>
       </c>
       <c r="H83" s="3">
-        <v>514900</v>
+        <v>501500</v>
       </c>
       <c r="I83" s="3">
-        <v>419000</v>
-      </c>
-      <c r="J83" s="3">
-        <v>327300</v>
+        <v>408100</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K83" s="3"/>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2558,7 +2593,7 @@
       </c>
       <c r="K84" s="3"/>
     </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="85" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2585,7 +2620,7 @@
       </c>
       <c r="K85" s="3"/>
     </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="86" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2612,7 +2647,7 @@
       </c>
       <c r="K86" s="3"/>
     </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2639,7 +2674,7 @@
       </c>
       <c r="K87" s="3"/>
     </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="88" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2666,34 +2701,34 @@
       </c>
       <c r="K88" s="3"/>
     </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="89" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2131200</v>
+        <v>2075800</v>
       </c>
       <c r="E89" s="3">
-        <v>2662000</v>
+        <v>2592800</v>
       </c>
       <c r="F89" s="3">
-        <v>1951000</v>
+        <v>1900300</v>
       </c>
       <c r="G89" s="3">
-        <v>1984000</v>
+        <v>1932500</v>
       </c>
       <c r="H89" s="3">
-        <v>1527000</v>
+        <v>1487400</v>
       </c>
       <c r="I89" s="3">
-        <v>1634700</v>
+        <v>1592200</v>
       </c>
       <c r="J89" s="3">
-        <v>1128200</v>
+        <v>1098900</v>
       </c>
       <c r="K89" s="3"/>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2706,34 +2741,34 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
     </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="91" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1284200</v>
+        <v>-1077700</v>
       </c>
       <c r="E91" s="3">
-        <v>-1135900</v>
+        <v>-987000</v>
       </c>
       <c r="F91" s="3">
-        <v>-980000</v>
+        <v>-904300</v>
       </c>
       <c r="G91" s="3">
-        <v>-939400</v>
+        <v>-878500</v>
       </c>
       <c r="H91" s="3">
-        <v>-927000</v>
+        <v>-847200</v>
       </c>
       <c r="I91" s="3">
-        <v>-811600</v>
+        <v>-767700</v>
       </c>
       <c r="J91" s="3">
-        <v>-1237200</v>
+        <v>-1172000</v>
       </c>
       <c r="K91" s="3"/>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2760,7 +2795,7 @@
       </c>
       <c r="K92" s="3"/>
     </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2787,34 +2822,34 @@
       </c>
       <c r="K93" s="3"/>
     </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="94" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>1668200</v>
+        <v>1624900</v>
       </c>
       <c r="E94" s="3">
-        <v>-2052000</v>
+        <v>-1998700</v>
       </c>
       <c r="F94" s="3">
-        <v>-1505800</v>
+        <v>-1466700</v>
       </c>
       <c r="G94" s="3">
-        <v>-828800</v>
+        <v>-807200</v>
       </c>
       <c r="H94" s="3">
-        <v>-2932800</v>
+        <v>-2856500</v>
       </c>
       <c r="I94" s="3">
-        <v>-777500</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-960500</v>
+        <v>-757300</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K94" s="3"/>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2827,34 +2862,34 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
     </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="96" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-661100</v>
+        <v>-643900</v>
       </c>
       <c r="E96" s="3">
-        <v>-639600</v>
+        <v>-623000</v>
       </c>
       <c r="F96" s="3">
-        <v>-568200</v>
+        <v>-553400</v>
       </c>
       <c r="G96" s="3">
-        <v>-167400</v>
+        <v>-163000</v>
       </c>
       <c r="H96" s="3">
-        <v>-875800</v>
+        <v>-853000</v>
       </c>
       <c r="I96" s="3">
-        <v>-487800</v>
+        <v>-475100</v>
       </c>
       <c r="J96" s="3">
-        <v>-351800</v>
+        <v>-342600</v>
       </c>
       <c r="K96" s="3"/>
     </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2881,7 +2916,7 @@
       </c>
       <c r="K97" s="3"/>
     </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="98" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2908,7 +2943,7 @@
       </c>
       <c r="K98" s="3"/>
     </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="99" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2935,84 +2970,84 @@
       </c>
       <c r="K99" s="3"/>
     </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="100" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1143700</v>
+        <v>-1114000</v>
       </c>
       <c r="E100" s="3">
-        <v>68900</v>
+        <v>67100</v>
       </c>
       <c r="F100" s="3">
-        <v>-729700</v>
+        <v>-710700</v>
       </c>
       <c r="G100" s="3">
-        <v>-493200</v>
+        <v>-480400</v>
       </c>
       <c r="H100" s="3">
-        <v>1093000</v>
+        <v>1064600</v>
       </c>
       <c r="I100" s="3">
-        <v>-181500</v>
-      </c>
-      <c r="J100" s="3">
-        <v>-332300</v>
+        <v>-176800</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K100" s="3"/>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>174900</v>
+        <v>170400</v>
       </c>
       <c r="E101" s="3">
-        <v>77400</v>
+        <v>75400</v>
       </c>
       <c r="F101" s="3">
-        <v>-39500</v>
+        <v>-38400</v>
       </c>
       <c r="G101" s="3">
-        <v>-224600</v>
+        <v>-218800</v>
       </c>
       <c r="H101" s="3">
-        <v>-179100</v>
+        <v>-174500</v>
       </c>
       <c r="I101" s="3">
-        <v>-108500</v>
-      </c>
-      <c r="J101" s="3">
-        <v>118700</v>
+        <v>-105700</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K101" s="3"/>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>2830600</v>
+        <v>2757000</v>
       </c>
       <c r="E102" s="3">
-        <v>756200</v>
+        <v>736500</v>
       </c>
       <c r="F102" s="3">
-        <v>-323900</v>
+        <v>-315500</v>
       </c>
       <c r="G102" s="3">
-        <v>437400</v>
+        <v>426100</v>
       </c>
       <c r="H102" s="3">
-        <v>-491800</v>
+        <v>-479000</v>
       </c>
       <c r="I102" s="3">
-        <v>567100</v>
+        <v>552400</v>
       </c>
       <c r="J102" s="3">
-        <v>-45900</v>
+        <v>-44700</v>
       </c>
       <c r="K102" s="3"/>
     </row>

--- a/Financials/Yearly/FMX_YR_FIN.xlsx
+++ b/Financials/Yearly/FMX_YR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24686EF2-7395-4872-8D25-CDBB88270854}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="FMX" sheetId="6" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
   <si>
     <t>FMX</t>
   </si>
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,140 +654,152 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.109375" style="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E7" s="2">
         <v>43100</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>42735</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42369</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42004</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>41639</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41274</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>40908</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>22753300</v>
+        <v>25183000</v>
       </c>
       <c r="E8" s="3">
-        <v>20662500</v>
+        <v>23584800</v>
       </c>
       <c r="F8" s="3">
-        <v>16115400</v>
+        <v>21417600</v>
       </c>
       <c r="G8" s="3">
-        <v>13625600</v>
+        <v>16704300</v>
       </c>
       <c r="H8" s="3">
-        <v>13348800</v>
+        <v>14123500</v>
       </c>
       <c r="I8" s="3">
-        <v>12325300</v>
+        <v>13836600</v>
       </c>
       <c r="J8" s="3">
+        <v>12775700</v>
+      </c>
+      <c r="K8" s="3">
         <v>10423600</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>29378500</v>
+        <v>15792100</v>
       </c>
       <c r="E9" s="3">
-        <v>12997400</v>
+        <v>14895100</v>
       </c>
       <c r="F9" s="3">
-        <v>9744600</v>
+        <v>13472400</v>
       </c>
       <c r="G9" s="3">
-        <v>7927500</v>
+        <v>10100700</v>
       </c>
       <c r="H9" s="3">
-        <v>7677500</v>
+        <v>8217200</v>
       </c>
       <c r="I9" s="3">
-        <v>7086100</v>
+        <v>7958000</v>
       </c>
       <c r="J9" s="3">
+        <v>7345100</v>
+      </c>
+      <c r="K9" s="3">
         <v>6063900</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>-6625200</v>
+        <v>9390900</v>
       </c>
       <c r="E10" s="3">
-        <v>7665100</v>
+        <v>8689600</v>
       </c>
       <c r="F10" s="3">
-        <v>6370800</v>
+        <v>7945200</v>
       </c>
       <c r="G10" s="3">
-        <v>5698000</v>
+        <v>6603600</v>
       </c>
       <c r="H10" s="3">
-        <v>5671300</v>
+        <v>5906300</v>
       </c>
       <c r="I10" s="3">
-        <v>5239200</v>
+        <v>5878600</v>
       </c>
       <c r="J10" s="3">
+        <v>5430700</v>
+      </c>
+      <c r="K10" s="3">
         <v>4359800</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -834,8 +811,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -860,9 +838,12 @@
       <c r="J12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -887,63 +868,72 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>106500</v>
+        <v>22500</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>110400</v>
       </c>
       <c r="F14" s="3">
-        <v>6900</v>
+        <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>5200</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
+        <v>7200</v>
+      </c>
+      <c r="H14" s="3">
+        <v>5400</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>58300</v>
+        <v>81200</v>
       </c>
       <c r="E15" s="3">
-        <v>43300</v>
+        <v>60400</v>
       </c>
       <c r="F15" s="3">
-        <v>28100</v>
+        <v>44900</v>
       </c>
       <c r="G15" s="3">
-        <v>21300</v>
+        <v>29100</v>
       </c>
       <c r="H15" s="3">
-        <v>21000</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>8</v>
+        <v>22000</v>
+      </c>
+      <c r="I15" s="3">
+        <v>21800</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -952,62 +942,69 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>20732400</v>
+        <v>22984400</v>
       </c>
       <c r="E17" s="3">
-        <v>18946700</v>
+        <v>21490100</v>
       </c>
       <c r="F17" s="3">
-        <v>14419900</v>
+        <v>19639100</v>
       </c>
       <c r="G17" s="3">
-        <v>12036100</v>
+        <v>14946900</v>
       </c>
       <c r="H17" s="3">
-        <v>11831900</v>
+        <v>12476000</v>
       </c>
       <c r="I17" s="3">
-        <v>10803000</v>
+        <v>12264300</v>
       </c>
       <c r="J17" s="3">
+        <v>11197800</v>
+      </c>
+      <c r="K17" s="3">
         <v>9195400</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2020900</v>
+        <v>2198500</v>
       </c>
       <c r="E18" s="3">
-        <v>1715800</v>
+        <v>2094700</v>
       </c>
       <c r="F18" s="3">
-        <v>1695400</v>
+        <v>1778500</v>
       </c>
       <c r="G18" s="3">
-        <v>1589500</v>
+        <v>1757400</v>
       </c>
       <c r="H18" s="3">
-        <v>1516900</v>
+        <v>1647500</v>
       </c>
       <c r="I18" s="3">
-        <v>1522300</v>
+        <v>1572300</v>
       </c>
       <c r="J18" s="3">
+        <v>1578000</v>
+      </c>
+      <c r="K18" s="3">
         <v>1228200</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1019,143 +1016,159 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1143600</v>
+        <v>-33500</v>
       </c>
       <c r="E20" s="3">
-        <v>53900</v>
+        <v>164300</v>
       </c>
       <c r="F20" s="3">
-        <v>-159900</v>
+        <v>55900</v>
       </c>
       <c r="G20" s="3">
-        <v>-160700</v>
+        <v>-165800</v>
       </c>
       <c r="H20" s="3">
-        <v>-63900</v>
+        <v>-166600</v>
       </c>
       <c r="I20" s="3">
-        <v>31100</v>
+        <v>-66300</v>
       </c>
       <c r="J20" s="3">
+        <v>32300</v>
+      </c>
+      <c r="K20" s="3">
         <v>108900</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>4077200</v>
+        <v>3092200</v>
       </c>
       <c r="E21" s="3">
-        <v>2478100</v>
+        <v>3100300</v>
       </c>
       <c r="F21" s="3">
-        <v>2094900</v>
+        <v>2571800</v>
       </c>
       <c r="G21" s="3">
-        <v>1946200</v>
+        <v>2173900</v>
       </c>
       <c r="H21" s="3">
-        <v>1954000</v>
+        <v>2019600</v>
       </c>
       <c r="I21" s="3">
-        <v>1961100</v>
-      </c>
-      <c r="J21" s="3" t="s">
+        <v>2027600</v>
+      </c>
+      <c r="J21" s="3">
+        <v>2034600</v>
+      </c>
+      <c r="K21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>904600</v>
+        <v>362100</v>
       </c>
       <c r="E22" s="3">
-        <v>292800</v>
+        <v>341300</v>
       </c>
       <c r="F22" s="3">
-        <v>234100</v>
+        <v>303500</v>
       </c>
       <c r="G22" s="3">
-        <v>200700</v>
+        <v>242600</v>
       </c>
       <c r="H22" s="3">
-        <v>155800</v>
+        <v>208100</v>
       </c>
       <c r="I22" s="3">
-        <v>129600</v>
+        <v>161500</v>
       </c>
       <c r="J22" s="3">
+        <v>134300</v>
+      </c>
+      <c r="K22" s="3">
         <v>119100</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2259900</v>
+        <v>1802900</v>
       </c>
       <c r="E23" s="3">
-        <v>1476900</v>
+        <v>1917700</v>
       </c>
       <c r="F23" s="3">
-        <v>1301400</v>
+        <v>1530900</v>
       </c>
       <c r="G23" s="3">
-        <v>1228000</v>
+        <v>1349000</v>
       </c>
       <c r="H23" s="3">
-        <v>1297100</v>
+        <v>1272900</v>
       </c>
       <c r="I23" s="3">
-        <v>1423900</v>
+        <v>1344500</v>
       </c>
       <c r="J23" s="3">
+        <v>1475900</v>
+      </c>
+      <c r="K23" s="3">
         <v>1218100</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>528200</v>
+        <v>545200</v>
       </c>
       <c r="E24" s="3">
-        <v>408000</v>
+        <v>547500</v>
       </c>
       <c r="F24" s="3">
-        <v>410200</v>
+        <v>422900</v>
       </c>
       <c r="G24" s="3">
-        <v>323400</v>
+        <v>425200</v>
       </c>
       <c r="H24" s="3">
-        <v>401100</v>
+        <v>335200</v>
       </c>
       <c r="I24" s="3">
-        <v>411100</v>
+        <v>415800</v>
       </c>
       <c r="J24" s="3">
+        <v>426100</v>
+      </c>
+      <c r="K24" s="3">
         <v>394000</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1180,63 +1193,72 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1731600</v>
+        <v>1257700</v>
       </c>
       <c r="E26" s="3">
-        <v>1068900</v>
+        <v>1370200</v>
       </c>
       <c r="F26" s="3">
-        <v>891200</v>
+        <v>1108000</v>
       </c>
       <c r="G26" s="3">
-        <v>904600</v>
+        <v>923800</v>
       </c>
       <c r="H26" s="3">
-        <v>896000</v>
+        <v>937700</v>
       </c>
       <c r="I26" s="3">
-        <v>1012700</v>
+        <v>928700</v>
       </c>
       <c r="J26" s="3">
+        <v>1049700</v>
+      </c>
+      <c r="K26" s="3">
         <v>824100</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2410400</v>
+        <v>1105700</v>
       </c>
       <c r="E27" s="3">
-        <v>1093400</v>
+        <v>2073700</v>
       </c>
       <c r="F27" s="3">
-        <v>914600</v>
+        <v>1133300</v>
       </c>
       <c r="G27" s="3">
-        <v>863800</v>
+        <v>948000</v>
       </c>
       <c r="H27" s="3">
-        <v>823500</v>
+        <v>895300</v>
       </c>
       <c r="I27" s="3">
-        <v>1071000</v>
+        <v>853600</v>
       </c>
       <c r="J27" s="3">
+        <v>1110100</v>
+      </c>
+      <c r="K27" s="3">
         <v>797500</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1261,17 +1283,20 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>192700</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
+        <v>180500</v>
+      </c>
+      <c r="E29" s="3">
+        <v>199800</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>8</v>
@@ -1288,9 +1313,12 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1315,9 +1343,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1342,63 +1373,72 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1143600</v>
+        <v>33500</v>
       </c>
       <c r="E32" s="3">
-        <v>-53900</v>
+        <v>-164300</v>
       </c>
       <c r="F32" s="3">
-        <v>159900</v>
+        <v>-55900</v>
       </c>
       <c r="G32" s="3">
-        <v>160700</v>
+        <v>165800</v>
       </c>
       <c r="H32" s="3">
-        <v>63900</v>
+        <v>166600</v>
       </c>
       <c r="I32" s="3">
-        <v>-31100</v>
+        <v>66300</v>
       </c>
       <c r="J32" s="3">
+        <v>-32300</v>
+      </c>
+      <c r="K32" s="3">
         <v>-108900</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2603100</v>
+        <v>1286100</v>
       </c>
       <c r="E33" s="3">
-        <v>1093400</v>
+        <v>2273500</v>
       </c>
       <c r="F33" s="3">
-        <v>914600</v>
+        <v>1133300</v>
       </c>
       <c r="G33" s="3">
-        <v>863800</v>
+        <v>948000</v>
       </c>
       <c r="H33" s="3">
-        <v>823500</v>
+        <v>895300</v>
       </c>
       <c r="I33" s="3">
-        <v>1071000</v>
+        <v>853600</v>
       </c>
       <c r="J33" s="3">
+        <v>1110100</v>
+      </c>
+      <c r="K33" s="3">
         <v>797500</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1423,68 +1463,77 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2603100</v>
+        <v>1286100</v>
       </c>
       <c r="E35" s="3">
-        <v>1093400</v>
+        <v>2273500</v>
       </c>
       <c r="F35" s="3">
-        <v>914600</v>
+        <v>1133300</v>
       </c>
       <c r="G35" s="3">
-        <v>863800</v>
+        <v>948000</v>
       </c>
       <c r="H35" s="3">
-        <v>823500</v>
+        <v>895300</v>
       </c>
       <c r="I35" s="3">
-        <v>1071000</v>
+        <v>853600</v>
       </c>
       <c r="J35" s="3">
+        <v>1110100</v>
+      </c>
+      <c r="K35" s="3">
         <v>797500</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E38" s="2">
         <v>43100</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>42735</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42369</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42004</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>41639</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41274</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>40908</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1496,8 +1545,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1509,251 +1559,279 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>5013900</v>
+        <v>3326300</v>
       </c>
       <c r="E41" s="3">
-        <v>2256900</v>
+        <v>5197200</v>
       </c>
       <c r="F41" s="3">
-        <v>1520400</v>
+        <v>2339400</v>
       </c>
       <c r="G41" s="3">
-        <v>1835900</v>
+        <v>1575900</v>
       </c>
       <c r="H41" s="3">
-        <v>2826200</v>
+        <v>1903000</v>
       </c>
       <c r="I41" s="3">
-        <v>1888900</v>
+        <v>2929500</v>
       </c>
       <c r="J41" s="3">
+        <v>1957900</v>
+      </c>
+      <c r="K41" s="3">
         <v>1336500</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>111700</v>
+        <v>1657800</v>
       </c>
       <c r="E42" s="3">
-        <v>6200</v>
+        <v>115800</v>
       </c>
       <c r="F42" s="3">
-        <v>127000</v>
+        <v>6400</v>
       </c>
       <c r="G42" s="3">
-        <v>7400</v>
+        <v>131700</v>
       </c>
       <c r="H42" s="3">
-        <v>6500</v>
+        <v>7700</v>
       </c>
       <c r="I42" s="3">
-        <v>88000</v>
+        <v>6800</v>
       </c>
       <c r="J42" s="3">
+        <v>91200</v>
+      </c>
+      <c r="K42" s="3">
         <v>96100</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2256000</v>
+        <v>2396000</v>
       </c>
       <c r="E43" s="3">
-        <v>1834100</v>
+        <v>2338400</v>
       </c>
       <c r="F43" s="3">
-        <v>2151200</v>
+        <v>1901100</v>
       </c>
       <c r="G43" s="3">
-        <v>1182900</v>
+        <v>2229800</v>
       </c>
       <c r="H43" s="3">
-        <v>1883800</v>
+        <v>1226200</v>
       </c>
       <c r="I43" s="3">
-        <v>935600</v>
+        <v>1952600</v>
       </c>
       <c r="J43" s="3">
+        <v>969800</v>
+      </c>
+      <c r="K43" s="3">
         <v>819300</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1801900</v>
+        <v>1913100</v>
       </c>
       <c r="E44" s="3">
-        <v>1651500</v>
+        <v>1867800</v>
       </c>
       <c r="F44" s="3">
-        <v>1276500</v>
+        <v>1711900</v>
       </c>
       <c r="G44" s="3">
-        <v>890300</v>
+        <v>1323100</v>
       </c>
       <c r="H44" s="3">
-        <v>1891800</v>
+        <v>922800</v>
       </c>
       <c r="I44" s="3">
-        <v>845400</v>
+        <v>1960900</v>
       </c>
       <c r="J44" s="3">
+        <v>876300</v>
+      </c>
+      <c r="K44" s="3">
         <v>1486600</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>187500</v>
+        <v>228200</v>
       </c>
       <c r="E45" s="3">
-        <v>351700</v>
+        <v>194300</v>
       </c>
       <c r="F45" s="3">
-        <v>441400</v>
+        <v>364500</v>
       </c>
       <c r="G45" s="3">
-        <v>175100</v>
+        <v>457600</v>
       </c>
       <c r="H45" s="3">
-        <v>985500</v>
+        <v>181500</v>
       </c>
       <c r="I45" s="3">
-        <v>144800</v>
+        <v>1021500</v>
       </c>
       <c r="J45" s="3">
+        <v>150100</v>
+      </c>
+      <c r="K45" s="3">
         <v>107700</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>9371000</v>
+        <v>9521500</v>
       </c>
       <c r="E46" s="3">
-        <v>6100400</v>
+        <v>9713500</v>
       </c>
       <c r="F46" s="3">
-        <v>4485300</v>
+        <v>6323400</v>
       </c>
       <c r="G46" s="3">
-        <v>4091700</v>
+        <v>4649200</v>
       </c>
       <c r="H46" s="3">
-        <v>3805000</v>
+        <v>4241200</v>
       </c>
       <c r="I46" s="3">
-        <v>3902500</v>
+        <v>3944000</v>
       </c>
       <c r="J46" s="3">
+        <v>4045100</v>
+      </c>
+      <c r="K46" s="3">
         <v>3102300</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>5618900</v>
+        <v>5740600</v>
       </c>
       <c r="E47" s="3">
-        <v>7524900</v>
+        <v>5824200</v>
       </c>
       <c r="F47" s="3">
-        <v>6327700</v>
+        <v>7799900</v>
       </c>
       <c r="G47" s="3">
-        <v>5686200</v>
+        <v>6559000</v>
       </c>
       <c r="H47" s="3">
-        <v>5229300</v>
+        <v>5894000</v>
       </c>
       <c r="I47" s="3">
-        <v>4539600</v>
+        <v>5420300</v>
       </c>
       <c r="J47" s="3">
+        <v>4705500</v>
+      </c>
+      <c r="K47" s="3">
         <v>8044400</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6036300</v>
+        <v>5822200</v>
       </c>
       <c r="E48" s="3">
-        <v>5287000</v>
+        <v>6256900</v>
       </c>
       <c r="F48" s="3">
-        <v>8305800</v>
+        <v>5480200</v>
       </c>
       <c r="G48" s="3">
-        <v>3911500</v>
+        <v>8609300</v>
       </c>
       <c r="H48" s="3">
-        <v>7649900</v>
+        <v>4054500</v>
       </c>
       <c r="I48" s="3">
-        <v>3188500</v>
+        <v>7929500</v>
       </c>
       <c r="J48" s="3">
+        <v>3305000</v>
+      </c>
+      <c r="K48" s="3">
         <v>6016600</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>7969700</v>
+        <v>7806200</v>
       </c>
       <c r="E49" s="3">
-        <v>7927000</v>
+        <v>8260900</v>
       </c>
       <c r="F49" s="3">
-        <v>11206800</v>
+        <v>8216700</v>
       </c>
       <c r="G49" s="3">
-        <v>5251000</v>
+        <v>11616300</v>
       </c>
       <c r="H49" s="3">
-        <v>10684600</v>
+        <v>5442900</v>
       </c>
       <c r="I49" s="3">
-        <v>3511400</v>
+        <v>11075100</v>
       </c>
       <c r="J49" s="3">
+        <v>3639700</v>
+      </c>
+      <c r="K49" s="3">
         <v>13061400</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1778,9 +1856,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1805,36 +1886,42 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1443400</v>
+        <v>2009400</v>
       </c>
       <c r="E52" s="3">
-        <v>1380300</v>
+        <v>1496100</v>
       </c>
       <c r="F52" s="3">
-        <v>823200</v>
+        <v>1430700</v>
       </c>
       <c r="G52" s="3">
-        <v>515300</v>
+        <v>853300</v>
       </c>
       <c r="H52" s="3">
-        <v>887100</v>
+        <v>534100</v>
       </c>
       <c r="I52" s="3">
-        <v>164100</v>
+        <v>919500</v>
       </c>
       <c r="J52" s="3">
+        <v>170100</v>
+      </c>
+      <c r="K52" s="3">
         <v>328300</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1859,36 +1946,42 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>30439300</v>
+        <v>30899800</v>
       </c>
       <c r="E54" s="3">
-        <v>28219600</v>
+        <v>31551700</v>
       </c>
       <c r="F54" s="3">
-        <v>21170700</v>
+        <v>29250800</v>
       </c>
       <c r="G54" s="3">
-        <v>19455700</v>
+        <v>21944300</v>
       </c>
       <c r="H54" s="3">
-        <v>18577400</v>
+        <v>20166600</v>
       </c>
       <c r="I54" s="3">
-        <v>15306100</v>
+        <v>19256300</v>
       </c>
       <c r="J54" s="3">
+        <v>15865500</v>
+      </c>
+      <c r="K54" s="3">
         <v>13621100</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1900,8 +1993,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1913,170 +2007,189 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3422000</v>
+        <v>3520500</v>
       </c>
       <c r="E57" s="3">
-        <v>3056100</v>
+        <v>3547000</v>
       </c>
       <c r="F57" s="3">
-        <v>2327900</v>
+        <v>3167800</v>
       </c>
       <c r="G57" s="3">
-        <v>1771200</v>
+        <v>2412900</v>
       </c>
       <c r="H57" s="3">
-        <v>1734800</v>
+        <v>1835900</v>
       </c>
       <c r="I57" s="3">
-        <v>1769100</v>
+        <v>1798200</v>
       </c>
       <c r="J57" s="3">
+        <v>1833700</v>
+      </c>
+      <c r="K57" s="3">
         <v>1925900</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>702900</v>
+        <v>733100</v>
       </c>
       <c r="E58" s="3">
-        <v>376600</v>
+        <v>728600</v>
       </c>
       <c r="F58" s="3">
-        <v>610500</v>
+        <v>390300</v>
       </c>
       <c r="G58" s="3">
-        <v>80300</v>
+        <v>632800</v>
       </c>
       <c r="H58" s="3">
-        <v>197900</v>
+        <v>83300</v>
       </c>
       <c r="I58" s="3">
-        <v>450100</v>
+        <v>205200</v>
       </c>
       <c r="J58" s="3">
+        <v>466500</v>
+      </c>
+      <c r="K58" s="3">
         <v>288200</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1306900</v>
+        <v>1185900</v>
       </c>
       <c r="E59" s="3">
-        <v>1030200</v>
+        <v>1354700</v>
       </c>
       <c r="F59" s="3">
-        <v>1498300</v>
+        <v>1067900</v>
       </c>
       <c r="G59" s="3">
-        <v>699300</v>
+        <v>1553100</v>
       </c>
       <c r="H59" s="3">
-        <v>2575400</v>
+        <v>724900</v>
       </c>
       <c r="I59" s="3">
-        <v>290100</v>
+        <v>2669600</v>
       </c>
       <c r="J59" s="3">
+        <v>300700</v>
+      </c>
+      <c r="K59" s="3">
         <v>244100</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>5431700</v>
+        <v>5439500</v>
       </c>
       <c r="E60" s="3">
-        <v>4462900</v>
+        <v>5630200</v>
       </c>
       <c r="F60" s="3">
-        <v>3379700</v>
+        <v>4626000</v>
       </c>
       <c r="G60" s="3">
-        <v>2550800</v>
+        <v>3503200</v>
       </c>
       <c r="H60" s="3">
-        <v>2527500</v>
+        <v>2644000</v>
       </c>
       <c r="I60" s="3">
-        <v>2509200</v>
+        <v>2619900</v>
       </c>
       <c r="J60" s="3">
+        <v>2600900</v>
+      </c>
+      <c r="K60" s="3">
         <v>2033900</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>6090400</v>
+        <v>6164600</v>
       </c>
       <c r="E61" s="3">
-        <v>6825300</v>
+        <v>6313000</v>
       </c>
       <c r="F61" s="3">
-        <v>4446300</v>
+        <v>7074800</v>
       </c>
       <c r="G61" s="3">
-        <v>4289400</v>
+        <v>4608800</v>
       </c>
       <c r="H61" s="3">
-        <v>3733400</v>
+        <v>4446100</v>
       </c>
       <c r="I61" s="3">
-        <v>1481300</v>
+        <v>3869800</v>
       </c>
       <c r="J61" s="3">
+        <v>1535400</v>
+      </c>
+      <c r="K61" s="3">
         <v>1231900</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1492100</v>
+        <v>1307300</v>
       </c>
       <c r="E62" s="3">
-        <v>2130700</v>
+        <v>1546600</v>
       </c>
       <c r="F62" s="3">
-        <v>1080200</v>
+        <v>2208600</v>
       </c>
       <c r="G62" s="3">
-        <v>713600</v>
+        <v>1119600</v>
       </c>
       <c r="H62" s="3">
-        <v>1574400</v>
+        <v>739700</v>
       </c>
       <c r="I62" s="3">
-        <v>446100</v>
+        <v>1631900</v>
       </c>
       <c r="J62" s="3">
+        <v>462400</v>
+      </c>
+      <c r="K62" s="3">
         <v>416200</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2101,9 +2214,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2128,9 +2244,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2155,36 +2274,42 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>17494300</v>
+        <v>17119200</v>
       </c>
       <c r="E66" s="3">
-        <v>17259900</v>
+        <v>18133600</v>
       </c>
       <c r="F66" s="3">
-        <v>11782200</v>
+        <v>17890700</v>
       </c>
       <c r="G66" s="3">
-        <v>10638800</v>
+        <v>12212800</v>
       </c>
       <c r="H66" s="3">
-        <v>7067100</v>
+        <v>11027600</v>
       </c>
       <c r="I66" s="3">
-        <v>7276100</v>
+        <v>7325400</v>
       </c>
       <c r="J66" s="3">
+        <v>7542000</v>
+      </c>
+      <c r="K66" s="3">
         <v>6161900</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2196,8 +2321,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2222,9 +2348,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2249,9 +2378,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2276,9 +2408,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2303,36 +2438,42 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>10440600</v>
+        <v>11676400</v>
       </c>
       <c r="E72" s="3">
-        <v>8730100</v>
+        <v>10822100</v>
       </c>
       <c r="F72" s="3">
-        <v>8127200</v>
+        <v>9049200</v>
       </c>
       <c r="G72" s="3">
-        <v>7609100</v>
+        <v>8424200</v>
       </c>
       <c r="H72" s="3">
-        <v>6767000</v>
+        <v>7887200</v>
       </c>
       <c r="I72" s="3">
-        <v>6646400</v>
+        <v>7014300</v>
       </c>
       <c r="J72" s="3">
+        <v>6889300</v>
+      </c>
+      <c r="K72" s="3">
         <v>5921300</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2357,9 +2498,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2384,9 +2528,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2411,36 +2558,42 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>12945100</v>
+        <v>13780600</v>
       </c>
       <c r="E76" s="3">
-        <v>10959700</v>
+        <v>13418100</v>
       </c>
       <c r="F76" s="3">
-        <v>9388400</v>
+        <v>11360200</v>
       </c>
       <c r="G76" s="3">
-        <v>8816900</v>
+        <v>9731500</v>
       </c>
       <c r="H76" s="3">
-        <v>11510300</v>
+        <v>9139100</v>
       </c>
       <c r="I76" s="3">
-        <v>8030000</v>
+        <v>11930900</v>
       </c>
       <c r="J76" s="3">
+        <v>8323400</v>
+      </c>
+      <c r="K76" s="3">
         <v>7459200</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2465,68 +2618,77 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E80" s="2">
         <v>43100</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>42735</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42369</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42004</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>41639</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41274</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>40908</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2603100</v>
+        <v>1286100</v>
       </c>
       <c r="E81" s="3">
-        <v>1093400</v>
+        <v>2273500</v>
       </c>
       <c r="F81" s="3">
-        <v>914600</v>
+        <v>1133300</v>
       </c>
       <c r="G81" s="3">
-        <v>863800</v>
+        <v>948000</v>
       </c>
       <c r="H81" s="3">
-        <v>823500</v>
+        <v>895300</v>
       </c>
       <c r="I81" s="3">
-        <v>1071000</v>
+        <v>853600</v>
       </c>
       <c r="J81" s="3">
+        <v>1110100</v>
+      </c>
+      <c r="K81" s="3">
         <v>797500</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2538,35 +2700,39 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>913600</v>
+        <v>924100</v>
       </c>
       <c r="E83" s="3">
-        <v>709000</v>
+        <v>838500</v>
       </c>
       <c r="F83" s="3">
-        <v>559900</v>
+        <v>734900</v>
       </c>
       <c r="G83" s="3">
-        <v>517900</v>
+        <v>580300</v>
       </c>
       <c r="H83" s="3">
-        <v>501500</v>
+        <v>536900</v>
       </c>
       <c r="I83" s="3">
-        <v>408100</v>
-      </c>
-      <c r="J83" s="3" t="s">
+        <v>519800</v>
+      </c>
+      <c r="J83" s="3">
+        <v>423000</v>
+      </c>
+      <c r="K83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2591,9 +2757,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2618,9 +2787,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2645,9 +2817,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2672,9 +2847,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2699,36 +2877,42 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2075800</v>
+        <v>2593500</v>
       </c>
       <c r="E89" s="3">
-        <v>2592800</v>
+        <v>2276800</v>
       </c>
       <c r="F89" s="3">
-        <v>1900300</v>
+        <v>2687500</v>
       </c>
       <c r="G89" s="3">
-        <v>1932500</v>
+        <v>1969800</v>
       </c>
       <c r="H89" s="3">
-        <v>1487400</v>
+        <v>2003100</v>
       </c>
       <c r="I89" s="3">
-        <v>1592200</v>
+        <v>1541700</v>
       </c>
       <c r="J89" s="3">
+        <v>1650400</v>
+      </c>
+      <c r="K89" s="3">
         <v>1098900</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2740,35 +2924,39 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1077700</v>
+        <v>-1157100</v>
       </c>
       <c r="E91" s="3">
-        <v>-987000</v>
+        <v>-1044500</v>
       </c>
       <c r="F91" s="3">
-        <v>-904300</v>
+        <v>-1023000</v>
       </c>
       <c r="G91" s="3">
-        <v>-878500</v>
+        <v>-937400</v>
       </c>
       <c r="H91" s="3">
-        <v>-847200</v>
+        <v>-910600</v>
       </c>
       <c r="I91" s="3">
-        <v>-767700</v>
+        <v>-878100</v>
       </c>
       <c r="J91" s="3">
+        <v>-795800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1172000</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2793,9 +2981,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2820,36 +3011,42 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>1624900</v>
+        <v>-3091300</v>
       </c>
       <c r="E94" s="3">
-        <v>-1998700</v>
+        <v>1533000</v>
       </c>
       <c r="F94" s="3">
-        <v>-1466700</v>
+        <v>-2071800</v>
       </c>
       <c r="G94" s="3">
-        <v>-807200</v>
+        <v>-1520300</v>
       </c>
       <c r="H94" s="3">
-        <v>-2856500</v>
+        <v>-836700</v>
       </c>
       <c r="I94" s="3">
-        <v>-757300</v>
-      </c>
-      <c r="J94" s="3" t="s">
+        <v>-2960900</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-785000</v>
+      </c>
+      <c r="K94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2861,35 +3058,39 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-643900</v>
+        <v>-693300</v>
       </c>
       <c r="E96" s="3">
-        <v>-623000</v>
+        <v>-667400</v>
       </c>
       <c r="F96" s="3">
-        <v>-553400</v>
+        <v>-645700</v>
       </c>
       <c r="G96" s="3">
-        <v>-163000</v>
+        <v>-573700</v>
       </c>
       <c r="H96" s="3">
-        <v>-853000</v>
+        <v>-169000</v>
       </c>
       <c r="I96" s="3">
-        <v>-475100</v>
+        <v>-884200</v>
       </c>
       <c r="J96" s="3">
+        <v>-492500</v>
+      </c>
+      <c r="K96" s="3">
         <v>-342600</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2914,9 +3115,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2941,9 +3145,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2968,88 +3175,100 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1114000</v>
+        <v>-1233600</v>
       </c>
       <c r="E100" s="3">
-        <v>67100</v>
+        <v>-1128700</v>
       </c>
       <c r="F100" s="3">
-        <v>-710700</v>
+        <v>69500</v>
       </c>
       <c r="G100" s="3">
-        <v>-480400</v>
+        <v>-736700</v>
       </c>
       <c r="H100" s="3">
-        <v>1064600</v>
+        <v>-497900</v>
       </c>
       <c r="I100" s="3">
-        <v>-176800</v>
-      </c>
-      <c r="J100" s="3" t="s">
+        <v>1103500</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-183200</v>
+      </c>
+      <c r="K100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>170400</v>
+        <v>-139500</v>
       </c>
       <c r="E101" s="3">
-        <v>75400</v>
+        <v>176600</v>
       </c>
       <c r="F101" s="3">
-        <v>-38400</v>
+        <v>78200</v>
       </c>
       <c r="G101" s="3">
-        <v>-218800</v>
+        <v>-39800</v>
       </c>
       <c r="H101" s="3">
-        <v>-174500</v>
+        <v>-226800</v>
       </c>
       <c r="I101" s="3">
-        <v>-105700</v>
-      </c>
-      <c r="J101" s="3" t="s">
+        <v>-180800</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-109600</v>
+      </c>
+      <c r="K101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>2757000</v>
+        <v>-1870900</v>
       </c>
       <c r="E102" s="3">
-        <v>736500</v>
+        <v>2857800</v>
       </c>
       <c r="F102" s="3">
-        <v>-315500</v>
+        <v>763500</v>
       </c>
       <c r="G102" s="3">
-        <v>426100</v>
+        <v>-327100</v>
       </c>
       <c r="H102" s="3">
-        <v>-479000</v>
+        <v>441600</v>
       </c>
       <c r="I102" s="3">
-        <v>552400</v>
+        <v>-496500</v>
       </c>
       <c r="J102" s="3">
+        <v>572600</v>
+      </c>
+      <c r="K102" s="3">
         <v>-44700</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
